--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04005D2E-F13E-4BF6-B0A6-51C6057E3ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA56566-526C-4212-8F62-661181367191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,16 +77,16 @@
     <t>Enhancement Project, Bangalore</t>
   </si>
   <si>
-    <t>S K Developers</t>
-  </si>
-  <si>
-    <t>Wor-8998989898/5666/2017-18/1</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Wor-8998989898/425232/19-20/Dec/AP Contractors/2019-20/Dec/23</t>
+  </si>
+  <si>
+    <t>Menu@2</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
@@ -125,13 +125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,8 +168,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,48 +452,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="33.25" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -516,20 +516,20 @@
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H2" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -588,7 +588,11 @@
       <c r="K6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{013D63C4-A99A-4938-B171-5FD90E54F47A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -609,12 +613,12 @@
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA56566-526C-4212-8F62-661181367191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6506603C-3568-4354-B9E6-88F797053B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>CheckListName</t>
   </si>
@@ -65,28 +65,64 @@
     <t>workOrderNo</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Enhancement Project, Bangalore</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Wor-8998989898/425232/19-20/Dec/AP Contractors/2019-20/Dec/23</t>
+  </si>
+  <si>
+    <t>Menu@2</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Materil Type</t>
+  </si>
+  <si>
+    <t>Material Sub Type</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Enhancement man Store</t>
+  </si>
+  <si>
+    <t>ANSType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Ans	</t>
+  </si>
+  <si>
+    <t>Black_Been</t>
+  </si>
+  <si>
+    <t>Material Quantity</t>
+  </si>
+  <si>
+    <t>Indent Status</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
     <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Enhancement Project, Bangalore</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Wor-8998989898/425232/19-20/Dec/AP Contractors/2019-20/Dec/23</t>
-  </si>
-  <si>
-    <t>Menu@2</t>
-  </si>
-  <si>
-    <t>January</t>
   </si>
 </sst>
 </file>
@@ -116,7 +152,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,17 +201,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +524,15 @@
     <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -488,13 +549,13 @@
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -505,37 +566,73 @@
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="2">
         <v>2020</v>
       </c>
       <c r="H2" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -547,8 +644,14 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -560,8 +663,14 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -573,8 +682,14 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -586,6 +701,12 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -610,43 +731,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA85FBF-24FC-4ABA-99B6-FD9285F34E19}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -654,5 +793,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1631A0AC-4699-405D-BE97-F7055D7765B1}">
+          <x14:formula1>
+            <xm:f>'Create Indent'!$Q$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6506603C-3568-4354-B9E6-88F797053B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D31C1-1F69-4D0E-B8C2-9FAB0DBB841C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>CheckListName</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Current_Indent_Qty</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,9 +533,10 @@
     <col min="15" max="15" width="28.42578125" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -584,8 +588,11 @@
       <c r="Q1" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -631,8 +638,11 @@
       <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -650,8 +660,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -669,8 +680,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -688,8 +700,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -707,6 +720,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D31C1-1F69-4D0E-B8C2-9FAB0DBB841C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314685C-FD39-49E6-A469-09DE407E1C12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{FF7D0956-56D4-4562-AA57-9D4CC4EC51EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>CheckListName</t>
   </si>
@@ -77,12 +102,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Wor-8998989898/425232/19-20/Dec/AP Contractors/2019-20/Dec/23</t>
-  </si>
-  <si>
-    <t>Menu@2</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -126,13 +145,34 @@
   </si>
   <si>
     <t>Current_Indent_Qty</t>
+  </si>
+  <si>
+    <t>Indent Status1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute Category	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute Name	</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>AutoTest</t>
+  </si>
+  <si>
+    <t>Wor-8998989898/2132525/2019-20/Jan/abccontractor/2019-20/Jan/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +193,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -219,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -228,6 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,20 +571,23 @@
     <col min="5" max="5" width="67.140625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -553,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -571,28 +622,37 @@
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -603,46 +663,55 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>2020</v>
       </c>
       <c r="H2" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P2" s="2">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -661,8 +730,9 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -681,8 +751,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -701,8 +772,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -721,13 +793,15 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{013D63C4-A99A-4938-B171-5FD90E54F47A}"/>
+    <hyperlink ref="D2" r:id="rId1" display="Menu@2" xr:uid="{013D63C4-A99A-4938-B171-5FD90E54F47A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -748,7 +822,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +833,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +886,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1631A0AC-4699-405D-BE97-F7055D7765B1}">
           <x14:formula1>
-            <xm:f>'Create Indent'!$Q$2</xm:f>
+            <xm:f>'Create Indent'!$R$2</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>

--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314685C-FD39-49E6-A469-09DE407E1C12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA410E1-2E90-4B32-A387-5EDC90ABB343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{FF7D0956-56D4-4562-AA57-9D4CC4EC51EE}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{FF7D0956-56D4-4562-AA57-9D4CC4EC51EE}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>CheckListName</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Enhancement Project, Bangalore</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -166,6 +163,15 @@
   </si>
   <si>
     <t>Wor-8998989898/2132525/2019-20/Jan/abccontractor/2019-20/Jan/1</t>
+  </si>
+  <si>
+    <t>COOLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset Type </t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,16 +584,16 @@
     <col min="12" max="12" width="27.28515625" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" customWidth="1"/>
+    <col min="15" max="16" width="30.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -622,39 +628,42 @@
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -663,13 +672,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
         <v>2020</v>
@@ -681,37 +690,40 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2">
         <v>10</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -731,8 +743,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -752,8 +765,9 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -773,8 +787,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -794,6 +809,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -833,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +902,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1631A0AC-4699-405D-BE97-F7055D7765B1}">
           <x14:formula1>
-            <xm:f>'Create Indent'!$R$2</xm:f>
+            <xm:f>'Create Indent'!$S$2</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>

--- a/IN4RE/TestData/Purchase/Inventory.xlsx
+++ b/IN4RE/TestData/Purchase/Inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA410E1-2E90-4B32-A387-5EDC90ABB343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9A4EC-B30E-49D2-97B4-5E744801FEE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t xml:space="preserve"> Asset Type </t>
   </si>
   <si>
-    <t>NO</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
